--- a/excel.xlsx
+++ b/excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Wages</t>
+  </si>
+  <si>
+    <t>Gio lam</t>
+  </si>
+  <si>
+    <t>Li do</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -254,11 +260,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,6 +331,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,23 +358,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,149 +659,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21">
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21">
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21">
-        <v>5</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21">
-        <v>6</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21">
-        <v>7</v>
-      </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="U2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="V2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>
@@ -752,396 +805,459 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="C5" s="2">
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="2">
+        <v>0</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1">
+      <c r="S5" s="2"/>
+      <c r="T5" s="1">
         <v>4</v>
       </c>
-      <c r="R5" s="9">
+      <c r="U5" s="9">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+      <c r="C6" s="2">
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="6">
+      <c r="S6" s="2"/>
+      <c r="T6" s="6">
         <v>4</v>
       </c>
-      <c r="R6" s="6">
+      <c r="U6" s="6">
         <f>1/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="V6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="C7" s="2">
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="6">
+      <c r="S7" s="2"/>
+      <c r="T7" s="6">
         <v>6</v>
       </c>
-      <c r="R7" s="6">
+      <c r="U7" s="6">
         <f>8/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+      <c r="C8" s="2">
+        <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
         <v>6</v>
       </c>
-      <c r="R8" s="6">
+      <c r="U8" s="6">
         <f>13/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+      <c r="C9" s="2">
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2">
+      <c r="S9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="T9" s="6">
         <v>5</v>
       </c>
-      <c r="R9" s="6">
+      <c r="U9" s="6">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="S9" s="6">
+      <c r="V9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="I12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="L12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="M12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="N12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="O12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="P12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1151,35 +1267,38 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="1"/>
+      <c r="E14" s="9">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>500</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
         <v>1000</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="11">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11">
         <v>500</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M14" s="2">
         <v>500</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1189,35 +1308,38 @@
       <c r="C15" s="6">
         <v>4</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <f>1/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>500</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
         <v>1000</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="11">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="11">
         <v>500</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M15" s="2">
         <v>300</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1227,35 +1349,38 @@
       <c r="C16" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <f>8/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>500</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <v>1000</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="11">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="11">
         <v>500</v>
       </c>
-      <c r="J16" s="2">
+      <c r="M16" s="2">
         <v>1000</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1265,35 +1390,38 @@
       <c r="C17" s="6">
         <v>6</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <f>13/24</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <v>1000</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="11">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="11">
         <v>500</v>
       </c>
-      <c r="J17" s="2">
+      <c r="M17" s="2">
         <v>200</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1303,43 +1431,47 @@
       <c r="C18" s="6">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>500</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
         <v>1000</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="11">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="11">
         <v>500</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M18" s="2">
         <v>500</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1349,11 +1481,11 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1361,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1369,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1378,43 +1510,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A11:S11"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
